--- a/data/trans_orig/Q47-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>173,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>174,76</t>
+          <t>175,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>160,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>161,68</t>
+          <t>161,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>167,38</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>168,08</t>
+          <t>168,72</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>172,63; 174,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>173,65; 175,94</t>
+          <t>173,9; 176,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>160,09; 161,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>161,06; 162,25</t>
+          <t>161,07; 162,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>166,54; 168,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>167,28; 168,92</t>
+          <t>167,78; 169,83</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>173,14</t>
+          <t>173,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>162,24</t>
+          <t>162,26</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>167,58</t>
+          <t>167,82</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>172,39; 173,85</t>
+          <t>172,45; 173,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>161,69; 162,78</t>
+          <t>161,73; 162,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,94; 168,13</t>
+          <t>167,18; 168,43</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>173,32</t>
+          <t>173,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>161,28</t>
+          <t>161,31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>166,92</t>
+          <t>167,13</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172,45; 174,22</t>
+          <t>172,54; 174,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>160,75; 161,89</t>
+          <t>160,77; 161,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>166,25; 167,59</t>
+          <t>166,44; 167,81</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>173,2</t>
+          <t>172,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>173,66</t>
+          <t>173,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>161,08</t>
+          <t>161,22</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>161,64</t>
+          <t>160,42</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>167,27</t>
+          <t>167,18</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>166,96</t>
+          <t>165,97</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,6; 173,88</t>
+          <t>172,13; 173,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172,65; 174,51</t>
+          <t>172,64; 174,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,51; 161,67</t>
+          <t>160,43; 161,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>160,54; 162,45</t>
+          <t>157,21; 162,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,72; 167,8</t>
+          <t>166,48; 167,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>165,75; 167,76</t>
+          <t>161,78; 167,61</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163,36</t>
+          <t>163,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>169,46</t>
+          <t>169,47</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>175,72; 177,42</t>
+          <t>175,72; 177,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>162,85; 163,89</t>
+          <t>162,82; 163,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>168,69; 170,18</t>
+          <t>168,71; 170,18</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>172,16</t>
+          <t>172,22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>161,89</t>
+          <t>161,88</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>167,12</t>
+          <t>167,25</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>171,34; 172,97</t>
+          <t>171,4; 173,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>161,16; 162,6</t>
+          <t>161,15; 162,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>166,42; 167,76</t>
+          <t>166,51; 167,88</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>173,97</t>
+          <t>174,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>161,06</t>
+          <t>160,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>166,73</t>
+          <t>166,18</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>173,34; 174,65</t>
+          <t>173,45; 174,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>158,92; 162,23</t>
+          <t>157,73; 162,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>163,98; 167,88</t>
+          <t>162,39; 168,17</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>173,63</t>
+          <t>175,43</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>162,15</t>
+          <t>162,14</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>167,89</t>
+          <t>169,68</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>172,86; 175,06</t>
+          <t>172,9; 178,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>161,34; 162,58</t>
+          <t>161,43; 162,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>167,23; 169,25</t>
+          <t>167,33; 174,33</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>173,73</t>
+          <t>174,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>161,81</t>
+          <t>161,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>167,48</t>
+          <t>167,79</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>173,41; 174,16</t>
+          <t>173,62; 176,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>161,06; 162,12</t>
+          <t>160,16; 162,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>166,84; 167,84</t>
+          <t>166,7; 169,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q47-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>172,78; 174,42</t>
+          <t>172,73; 174,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>172,63; 174,49</t>
+          <t>172,57; 174,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>173,3; 175,08</t>
+          <t>173,32; 175,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>173,9; 176,68</t>
+          <t>174,07; 176,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>160,5; 161,99</t>
+          <t>160,52; 162,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>160,09; 161,8</t>
+          <t>160,09; 161,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>160,73; 162,43</t>
+          <t>160,84; 162,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>161,07; 162,28</t>
+          <t>161,11; 162,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166,72; 168,3</t>
+          <t>166,8; 168,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>166,54; 168,23</t>
+          <t>166,57; 168,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>167,21; 168,87</t>
+          <t>167,21; 168,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>167,78; 169,83</t>
+          <t>167,75; 169,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,52 +864,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>171,9; 173,19</t>
+          <t>171,86; 173,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>172,05; 173,42</t>
+          <t>172,05; 173,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>171,49; 172,88</t>
+          <t>171,5; 172,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>172,45; 173,94</t>
+          <t>172,54; 173,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>159,75; 160,9</t>
+          <t>159,74; 160,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>160,06; 161,39</t>
+          <t>160,17; 161,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>159,84; 161,13</t>
+          <t>159,92; 161,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>161,73; 162,8</t>
+          <t>161,73; 162,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>165,76; 166,97</t>
+          <t>165,76; 166,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>166,08; 167,34</t>
+          <t>166,05; 167,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>167,18; 168,43</t>
+          <t>167,28; 168,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,02; 173,74</t>
+          <t>171,94; 173,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>172,37; 173,79</t>
+          <t>172,29; 173,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>173,45; 175,03</t>
+          <t>173,4; 175,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172,54; 174,34</t>
+          <t>172,51; 174,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,63; 161,16</t>
+          <t>159,65; 161,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,46; 161,88</t>
+          <t>160,53; 161,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>161,13; 162,69</t>
+          <t>161,19; 162,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>160,77; 161,9</t>
+          <t>160,77; 161,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>165,75; 167,25</t>
+          <t>165,8; 167,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166,3; 167,67</t>
+          <t>166,33; 167,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167,27; 168,68</t>
+          <t>167,23; 168,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>166,44; 167,81</t>
+          <t>166,46; 167,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,99; 174,6</t>
+          <t>172,99; 174,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,13; 173,74</t>
+          <t>171,94; 173,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172,43; 174,05</t>
+          <t>172,43; 174,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172,64; 174,55</t>
+          <t>172,77; 174,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>161,0; 162,37</t>
+          <t>161,03; 162,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,43; 161,92</t>
+          <t>160,51; 161,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>160,5; 161,89</t>
+          <t>160,51; 161,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>157,21; 162,16</t>
+          <t>157,17; 162,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,96; 168,33</t>
+          <t>167,02; 168,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,48; 167,93</t>
+          <t>166,5; 167,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>166,63; 168,09</t>
+          <t>166,62; 168,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>161,78; 167,61</t>
+          <t>162,47; 167,62</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>171,19; 173,23</t>
+          <t>171,19; 173,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,87; 174,97</t>
+          <t>172,93; 174,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>171,8; 173,7</t>
+          <t>171,83; 173,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>175,72; 177,41</t>
+          <t>175,7; 177,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>159,99; 161,78</t>
+          <t>159,97; 161,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>159,46; 161,39</t>
+          <t>159,32; 161,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>160,25; 161,9</t>
+          <t>160,33; 161,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>162,82; 163,85</t>
+          <t>162,82; 163,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>165,65; 167,44</t>
+          <t>165,67; 167,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,29; 168,19</t>
+          <t>166,19; 168,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>165,98; 167,66</t>
+          <t>165,93; 167,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>168,71; 170,18</t>
+          <t>168,72; 170,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>172,7; 174,42</t>
+          <t>172,75; 174,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>172,52; 174,45</t>
+          <t>172,65; 174,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>172,09; 174,1</t>
+          <t>172,26; 174,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>171,4; 173,01</t>
+          <t>171,38; 173,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>159,03; 160,8</t>
+          <t>159,18; 160,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>160,07; 161,73</t>
+          <t>160,06; 161,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>159,68; 161,19</t>
+          <t>159,69; 161,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>161,15; 162,59</t>
+          <t>161,18; 162,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>165,88; 167,55</t>
+          <t>165,87; 167,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>166,35; 168,05</t>
+          <t>166,23; 167,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>165,92; 167,55</t>
+          <t>165,95; 167,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>166,51; 167,88</t>
+          <t>166,6; 167,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>172,93; 174,15</t>
+          <t>172,91; 174,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>172,92; 174,1</t>
+          <t>172,97; 174,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>175,83; 177,13</t>
+          <t>175,82; 177,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>173,45; 174,84</t>
+          <t>173,53; 174,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>160,6; 161,77</t>
+          <t>160,62; 161,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>161,1; 162,2</t>
+          <t>161,1; 162,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>162,27; 163,32</t>
+          <t>162,2; 163,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>157,73; 162,24</t>
+          <t>157,62; 162,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>166,64; 167,81</t>
+          <t>166,68; 167,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>166,96; 168,08</t>
+          <t>166,89; 167,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>168,85; 170,01</t>
+          <t>168,88; 170,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>162,39; 168,17</t>
+          <t>161,79; 168,12</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>172,61; 173,73</t>
+          <t>172,61; 173,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>172,11; 173,29</t>
+          <t>172,08; 173,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>172,67; 173,77</t>
+          <t>172,62; 173,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>172,9; 178,77</t>
+          <t>172,92; 179,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>160,55; 161,52</t>
+          <t>160,53; 161,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>160,29; 161,19</t>
+          <t>160,34; 161,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>160,77; 161,7</t>
+          <t>160,74; 161,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>161,43; 162,56</t>
+          <t>161,42; 162,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>166,42; 167,41</t>
+          <t>166,5; 167,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>166,12; 167,0</t>
+          <t>166,09; 167,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>166,55; 167,48</t>
+          <t>166,52; 167,49</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>167,33; 174,33</t>
+          <t>167,36; 174,39</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>172,91; 173,42</t>
+          <t>172,92; 173,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,38</t>
+          <t>172,87; 173,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,12</t>
+          <t>173,59; 174,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>173,62; 176,07</t>
+          <t>173,64; 176,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,13</t>
+          <t>160,65; 161,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>160,78; 161,24</t>
+          <t>160,78; 161,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>160,16; 162,04</t>
+          <t>160,25; 162,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,16</t>
+          <t>166,72; 167,18</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>166,79; 167,25</t>
+          <t>166,78; 167,24</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>167,28; 167,77</t>
+          <t>167,32; 167,8</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>166,7; 169,23</t>
+          <t>166,73; 169,32</t>
         </is>
       </c>
     </row>
